--- a/src/Mooc/WebBundle/Resources/public/example/user_score_import_example.xlsx
+++ b/src/Mooc/WebBundle/Resources/public/example/user_score_import_example.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26915"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26505"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tracy/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/retamia/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" tabRatio="988"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="988"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,9 +17,6 @@
   </sheets>
   <calcPr calcId="101716" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -90,16 +87,19 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>姓名</t>
+    <t>其他</t>
     <rPh sb="0" eb="1">
-      <t>xing'm</t>
+      <t>qi't</t>
     </rPh>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>其他</t>
+    <t>学员姓名</t>
     <rPh sb="0" eb="1">
-      <t>qi't</t>
+      <t>xue'yuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xing'm</t>
     </rPh>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -844,7 +844,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -883,13 +883,13 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
